--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H2">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I2">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J2">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>1.677076208419667</v>
+        <v>1.331149786130556</v>
       </c>
       <c r="R2">
-        <v>15.093685875777</v>
+        <v>11.980348075175</v>
       </c>
       <c r="S2">
-        <v>0.2081132735279268</v>
+        <v>0.1441786780166166</v>
       </c>
       <c r="T2">
-        <v>0.2081132735279268</v>
+        <v>0.1441786780166166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H3">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I3">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J3">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>1.582536830466333</v>
+        <v>1.469752288392778</v>
       </c>
       <c r="R3">
-        <v>14.242831474197</v>
+        <v>13.227770595535</v>
       </c>
       <c r="S3">
-        <v>0.196381606639812</v>
+        <v>0.1591909071092202</v>
       </c>
       <c r="T3">
-        <v>0.196381606639812</v>
+        <v>0.1591909071092202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H4">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I4">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J4">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>1.435333086227667</v>
+        <v>2.032522985760556</v>
       </c>
       <c r="R4">
-        <v>12.917997776049</v>
+        <v>18.292706871845</v>
       </c>
       <c r="S4">
-        <v>0.1781146650808804</v>
+        <v>0.2201453812175289</v>
       </c>
       <c r="T4">
-        <v>0.1781146650808804</v>
+        <v>0.2201453812175289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.680725</v>
       </c>
       <c r="I5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>0.8625848592027778</v>
+        <v>0.7372005332361111</v>
       </c>
       <c r="R5">
-        <v>7.763263732825001</v>
+        <v>6.634804799125</v>
       </c>
       <c r="S5">
-        <v>0.1070406686607735</v>
+        <v>0.07984721135259439</v>
       </c>
       <c r="T5">
-        <v>0.1070406686607735</v>
+        <v>0.0798472113525944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.680725</v>
       </c>
       <c r="I6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
         <v>0.8139596174805555</v>
@@ -818,10 +818,10 @@
         <v>7.325636557325</v>
       </c>
       <c r="S6">
-        <v>0.1010066207265808</v>
+        <v>0.08816109413831769</v>
       </c>
       <c r="T6">
-        <v>0.1010066207265808</v>
+        <v>0.0881610941383177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.680725</v>
       </c>
       <c r="I7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>0.7382470646694443</v>
+        <v>1.125626165086111</v>
       </c>
       <c r="R7">
-        <v>6.644223582024999</v>
+        <v>10.130635485775</v>
       </c>
       <c r="S7">
-        <v>0.09161122942976896</v>
+        <v>0.1219181298107591</v>
       </c>
       <c r="T7">
-        <v>0.09161122942976896</v>
+        <v>0.1219181298107591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H8">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>0.3388983759994444</v>
+        <v>0.47436549911</v>
       </c>
       <c r="R8">
-        <v>3.050085383995</v>
+        <v>4.26928949199</v>
       </c>
       <c r="S8">
-        <v>0.04205488699228718</v>
+        <v>0.05137918457484877</v>
       </c>
       <c r="T8">
-        <v>0.04205488699228719</v>
+        <v>0.05137918457484877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H9">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>0.3197941507438888</v>
+        <v>0.523757570422</v>
       </c>
       <c r="R9">
-        <v>2.878147356695</v>
+        <v>4.713818133797999</v>
       </c>
       <c r="S9">
-        <v>0.03968418801260571</v>
+        <v>0.0567289082651985</v>
       </c>
       <c r="T9">
-        <v>0.03968418801260572</v>
+        <v>0.0567289082651985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H10">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>0.290047673146111</v>
+        <v>0.724305251474</v>
       </c>
       <c r="R10">
-        <v>2.610429058314999</v>
+        <v>6.518747263266</v>
       </c>
       <c r="S10">
-        <v>0.0359928609293647</v>
+        <v>0.07845050551491592</v>
       </c>
       <c r="T10">
-        <v>0.0359928609293647</v>
+        <v>0.07845050551491592</v>
       </c>
     </row>
   </sheetData>
